--- a/20_website/SoIB_2023_main_readme_forweb.xlsx
+++ b/20_website/SoIB_2023_main_readme_forweb.xlsx
@@ -936,7 +936,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Projected Decline in 3 Generations</t>
+          <t>Projected % Decline in 3 Generations</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
